--- a/xlsx/country_comparison/main_alla_share.xlsx
+++ b/xlsx/country_comparison/main_alla_share.xlsx
@@ -17,6 +17,9 @@
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
     <t xml:space="preserve">Europe</t>
   </si>
   <si>
@@ -30,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Support for the GCS</t>
@@ -415,22 +415,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
+        <v>0.540986612873648</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.75401393517116</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.784386617100372</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.703183520599251</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.814189189189189</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.747002398081535</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.540986612873648</v>
       </c>
     </row>
     <row r="3">
@@ -438,22 +438,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
+        <v>0.681867535287731</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.829362029208301</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.806451612903226</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.84037558685446</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.866108786610879</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.809815950920245</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.681867535287731</v>
       </c>
     </row>
     <row r="4">
@@ -461,22 +461,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
+        <v>0.520795660036166</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.52</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.44559585492228</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.603238866396761</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.58955223880597</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.442786069651741</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.520795660036166</v>
       </c>
     </row>
     <row r="5">
@@ -484,22 +484,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
+        <v>0.471950133570793</v>
+      </c>
+      <c r="C5" t="n">
         <v>0.620628596724214</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.567049808429119</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.620466321243523</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.646596858638743</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.65180102915952</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.471950133570793</v>
       </c>
     </row>
     <row r="6">
@@ -507,22 +507,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
+        <v>0.688758389261745</v>
+      </c>
+      <c r="C6" t="n">
         <v>0.815746084089035</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.79646017699115</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.820448877805486</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.855233853006682</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.798360655737705</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.688758389261745</v>
       </c>
     </row>
     <row r="7">
@@ -530,22 +530,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.826194398682043</v>
+        <v>0.324587839035632</v>
       </c>
       <c r="C7" t="n">
-        <v>0.869090909090909</v>
+        <v>0.545553440304596</v>
       </c>
       <c r="D7" t="n">
-        <v>0.869888475836431</v>
+        <v>0.527012127894157</v>
       </c>
       <c r="E7" t="n">
-        <v>0.891647855530474</v>
+        <v>0.608318890814558</v>
       </c>
       <c r="F7" t="n">
-        <v>0.686305732484076</v>
+        <v>0.591317365269461</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7748624629708</v>
+        <v>0.45464135021097</v>
       </c>
     </row>
     <row r="8">
@@ -553,22 +553,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
+        <v>0.430512422360248</v>
+      </c>
+      <c r="C8" t="n">
         <v>0.414180301572024</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.352317880794702</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.4873046875</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.438721136767318</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.36</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.430512422360248</v>
       </c>
     </row>
   </sheetData>
